--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1580.130172666666</v>
+        <v>0.522104</v>
       </c>
       <c r="H2">
-        <v>4740.390517999999</v>
+        <v>1.566312</v>
       </c>
       <c r="I2">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="J2">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N2">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P2">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q2">
-        <v>23591.92391239676</v>
+        <v>4.466327877850667</v>
       </c>
       <c r="R2">
-        <v>212327.3152115708</v>
+        <v>40.196950900656</v>
       </c>
       <c r="S2">
-        <v>0.2478585799811701</v>
+        <v>0.02984858327688607</v>
       </c>
       <c r="T2">
-        <v>0.2478585799811701</v>
+        <v>0.02984858327688607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1580.130172666666</v>
+        <v>0.522104</v>
       </c>
       <c r="H3">
-        <v>4740.390517999999</v>
+        <v>1.566312</v>
       </c>
       <c r="I3">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="J3">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N3">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P3">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q3">
-        <v>32052.72196786944</v>
+        <v>10.59080741561333</v>
       </c>
       <c r="R3">
-        <v>288474.4977108249</v>
+        <v>95.31726674052</v>
       </c>
       <c r="S3">
-        <v>0.3367483796992405</v>
+        <v>0.07077863644585897</v>
       </c>
       <c r="T3">
-        <v>0.3367483796992405</v>
+        <v>0.07077863644585897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1580.130172666666</v>
+        <v>0.522104</v>
       </c>
       <c r="H4">
-        <v>4740.390517999999</v>
+        <v>1.566312</v>
       </c>
       <c r="I4">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="J4">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N4">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O4">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P4">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q4">
-        <v>6951.860647735518</v>
+        <v>2.629896671717333</v>
       </c>
       <c r="R4">
-        <v>62566.74582961966</v>
+        <v>23.669070045456</v>
       </c>
       <c r="S4">
-        <v>0.07303678643475463</v>
+        <v>0.01757566662417456</v>
       </c>
       <c r="T4">
-        <v>0.07303678643475464</v>
+        <v>0.01757566662417456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1580.130172666666</v>
+        <v>0.522104</v>
       </c>
       <c r="H5">
-        <v>4740.390517999999</v>
+        <v>1.566312</v>
       </c>
       <c r="I5">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="J5">
-        <v>0.981179779023859</v>
+        <v>0.1803483207170308</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N5">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P5">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q5">
-        <v>30795.13112630785</v>
+        <v>9.298996988688</v>
       </c>
       <c r="R5">
-        <v>277156.1801367706</v>
+        <v>83.690972898192</v>
       </c>
       <c r="S5">
-        <v>0.3235360329086937</v>
+        <v>0.06214543437011118</v>
       </c>
       <c r="T5">
-        <v>0.3235360329086937</v>
+        <v>0.06214543437011118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.712339</v>
       </c>
       <c r="I6">
-        <v>0.0007683906939419067</v>
+        <v>0.4274461949996817</v>
       </c>
       <c r="J6">
-        <v>0.0007683906939419066</v>
+        <v>0.4274461949996816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N6">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P6">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q6">
-        <v>18.47552831195311</v>
+        <v>10.58570908460911</v>
       </c>
       <c r="R6">
-        <v>166.279754807578</v>
+        <v>95.271381761482</v>
       </c>
       <c r="S6">
-        <v>0.0001941053315027151</v>
+        <v>0.0707445641695473</v>
       </c>
       <c r="T6">
-        <v>0.0001941053315027151</v>
+        <v>0.07074456416954729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.712339</v>
       </c>
       <c r="I7">
-        <v>0.0007683906939419067</v>
+        <v>0.4274461949996817</v>
       </c>
       <c r="J7">
-        <v>0.0007683906939419066</v>
+        <v>0.4274461949996816</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N7">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P7">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q7">
-        <v>25.10142769159055</v>
+        <v>25.10142769159056</v>
       </c>
       <c r="R7">
         <v>225.912849224315</v>
       </c>
       <c r="S7">
-        <v>0.0002637175436068787</v>
+        <v>0.1677534823488447</v>
       </c>
       <c r="T7">
-        <v>0.0002637175436068787</v>
+        <v>0.1677534823488447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.712339</v>
       </c>
       <c r="I8">
-        <v>0.0007683906939419067</v>
+        <v>0.4274461949996817</v>
       </c>
       <c r="J8">
-        <v>0.0007683906939419066</v>
+        <v>0.4274461949996816</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N8">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O8">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P8">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q8">
-        <v>5.444206190852445</v>
+        <v>6.233156599953555</v>
       </c>
       <c r="R8">
-        <v>48.997855717672</v>
+        <v>56.098409399582</v>
       </c>
       <c r="S8">
-        <v>5.719725193248533E-05</v>
+        <v>0.04165634475118721</v>
       </c>
       <c r="T8">
-        <v>5.719725193248533E-05</v>
+        <v>0.04165634475118721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.712339</v>
       </c>
       <c r="I9">
-        <v>0.0007683906939419067</v>
+        <v>0.4274461949996817</v>
       </c>
       <c r="J9">
-        <v>0.0007683906939419066</v>
+        <v>0.4274461949996816</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N9">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P9">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q9">
-        <v>24.1165713787099</v>
+        <v>22.039688888286</v>
       </c>
       <c r="R9">
-        <v>217.049142408389</v>
+        <v>198.357199994574</v>
       </c>
       <c r="S9">
-        <v>0.0002533705668998276</v>
+        <v>0.1472918037301024</v>
       </c>
       <c r="T9">
-        <v>0.0002533705668998276</v>
+        <v>0.1472918037301024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>29.07137133333334</v>
+        <v>1.135425333333333</v>
       </c>
       <c r="H10">
-        <v>87.21411400000001</v>
+        <v>3.406276</v>
       </c>
       <c r="I10">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="J10">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.93036733333333</v>
+        <v>8.554479333333333</v>
       </c>
       <c r="N10">
-        <v>44.791102</v>
+        <v>25.663438</v>
       </c>
       <c r="O10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="P10">
-        <v>0.252612808865421</v>
+        <v>0.1655051910559175</v>
       </c>
       <c r="Q10">
-        <v>434.0462528904032</v>
+        <v>9.71297254854311</v>
       </c>
       <c r="R10">
-        <v>3906.416276013629</v>
+        <v>87.416752936888</v>
       </c>
       <c r="S10">
-        <v>0.00456012355274817</v>
+        <v>0.06491204360948417</v>
       </c>
       <c r="T10">
-        <v>0.00456012355274817</v>
+        <v>0.06491204360948419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>29.07137133333334</v>
+        <v>1.135425333333333</v>
       </c>
       <c r="H11">
-        <v>87.21411400000001</v>
+        <v>3.406276</v>
       </c>
       <c r="I11">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="J11">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.28486166666666</v>
+        <v>20.28486166666667</v>
       </c>
       <c r="N11">
-        <v>60.85458499999999</v>
+        <v>60.854585</v>
       </c>
       <c r="O11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="P11">
-        <v>0.3432076230048887</v>
+        <v>0.392455200938143</v>
       </c>
       <c r="Q11">
-        <v>589.7087459569656</v>
+        <v>23.03194581949555</v>
       </c>
       <c r="R11">
-        <v>5307.37871361269</v>
+        <v>207.28751237546</v>
       </c>
       <c r="S11">
-        <v>0.006195525762041207</v>
+        <v>0.1539230821434393</v>
       </c>
       <c r="T11">
-        <v>0.006195525762041207</v>
+        <v>0.1539230821434393</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>29.07137133333334</v>
+        <v>1.135425333333333</v>
       </c>
       <c r="H12">
-        <v>87.21411400000001</v>
+        <v>3.406276</v>
       </c>
       <c r="I12">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="J12">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.399549333333334</v>
+        <v>5.037112666666666</v>
       </c>
       <c r="N12">
-        <v>13.198648</v>
+        <v>15.111338</v>
       </c>
       <c r="O12">
-        <v>0.0744377207889632</v>
+        <v>0.09745400763531942</v>
       </c>
       <c r="P12">
-        <v>0.07443772078896321</v>
+        <v>0.09745400763531943</v>
       </c>
       <c r="Q12">
-        <v>127.9009323686525</v>
+        <v>5.719265328587555</v>
       </c>
       <c r="R12">
-        <v>1151.108391317872</v>
+        <v>51.473387957288</v>
       </c>
       <c r="S12">
-        <v>0.001343737102276084</v>
+        <v>0.03822199625995766</v>
       </c>
       <c r="T12">
-        <v>0.001343737102276084</v>
+        <v>0.03822199625995767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>29.07137133333334</v>
+        <v>1.135425333333333</v>
       </c>
       <c r="H13">
-        <v>87.21411400000001</v>
+        <v>3.406276</v>
       </c>
       <c r="I13">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="J13">
-        <v>0.01805183028219906</v>
+        <v>0.3922054842832876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.48898366666667</v>
+        <v>17.810622</v>
       </c>
       <c r="N13">
-        <v>58.46695100000001</v>
+        <v>53.431866</v>
       </c>
       <c r="O13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="P13">
-        <v>0.3297418473407271</v>
+        <v>0.34458560037062</v>
       </c>
       <c r="Q13">
-        <v>566.5714810829351</v>
+        <v>20.222631421224</v>
       </c>
       <c r="R13">
-        <v>5099.143329746415</v>
+        <v>182.003682791016</v>
       </c>
       <c r="S13">
-        <v>0.005952443865133597</v>
+        <v>0.1351483622704064</v>
       </c>
       <c r="T13">
-        <v>0.005952443865133597</v>
+        <v>0.1351483622704064</v>
       </c>
     </row>
   </sheetData>
